--- a/template.xlsx
+++ b/template.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsuzuki/workspace/syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC33960-6A59-F04F-B828-FC8B26403237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA708BAE-C8C1-0A46-9B4E-5014AB534471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="760" windowWidth="24240" windowHeight="16000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="template_8" sheetId="2" r:id="rId1"/>
+    <sheet name="template_15" sheetId="1" r:id="rId2"/>
+    <sheet name="template_14" sheetId="3" r:id="rId3"/>
+    <sheet name="template_26" sheetId="4" r:id="rId4"/>
+    <sheet name="template_16" sheetId="5" r:id="rId5"/>
+    <sheet name="template_12" sheetId="6" r:id="rId6"/>
+    <sheet name="template_30" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="55">
   <si>
     <t>新旧対応表</t>
   </si>
@@ -107,6 +123,164 @@
   <si>
     <t>履修上の留意点</t>
   </si>
+  <si>
+    <t>1（4コマ）</t>
+  </si>
+  <si>
+    <t>2（4コマ）</t>
+  </si>
+  <si>
+    <t>3（4コマ）</t>
+  </si>
+  <si>
+    <t>4（4コマ）</t>
+  </si>
+  <si>
+    <t>5（4コマ）</t>
+  </si>
+  <si>
+    <t>6（4コマ）</t>
+  </si>
+  <si>
+    <t>7（4コマ）</t>
+  </si>
+  <si>
+    <t>8（4コマ）</t>
+  </si>
+  <si>
+    <t>9（4コマ）</t>
+  </si>
+  <si>
+    <t>10（4コマ）</t>
+  </si>
+  <si>
+    <t>11（4コマ）</t>
+  </si>
+  <si>
+    <t>12（4コマ）</t>
+  </si>
+  <si>
+    <t>13（4コマ）</t>
+  </si>
+  <si>
+    <t>14（4コマ）</t>
+  </si>
+  <si>
+    <t>15（4コマ）</t>
+  </si>
+  <si>
+    <t>第1週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～</t>
+  </si>
+  <si>
+    <t>第2週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第3週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第4週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第5週～</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第8週～</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第11週～</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第12週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第13週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第14週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第15週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +313,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -395,6 +576,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -404,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +716,25 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,11 +1055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A506BA6-8BA2-E144-B802-8F055582BC3E}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -833,42 +1083,607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="27" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" ht="41" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="L6" s="15"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="74" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="15"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="105" customHeight="1" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="43" customHeight="1" thickTop="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="47" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="47" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="47" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="47" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="47" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="47" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="47" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="47" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="22" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="63" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="89" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="61" customHeight="1" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="96" customHeight="1" thickTop="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="L26" s="15"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="92" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="L27" s="15"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="76" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView topLeftCell="B20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="56.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22" style="11" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="11" customWidth="1"/>
+    <col min="15" max="25" width="10.7109375" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="41" customHeight="1">
       <c r="A3" s="19"/>
@@ -1495,4 +2310,3873 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8149BB80-3375-8B4C-B3DE-946A9F9CA938}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="56.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22" style="11" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="11" customWidth="1"/>
+    <col min="15" max="25" width="10.7109375" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" ht="41" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="L6" s="15"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="74" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="15"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="105" customHeight="1" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="43" customHeight="1" thickTop="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="47" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="47" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="47" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="47" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="47" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="47" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="47" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="47" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="47" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="1">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="47" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="47" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="1">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="1">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="47" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="1">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="1">
+        <v>12</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="47" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="1">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="47" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="1">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="1">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="22" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="63" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="89" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="61" customHeight="1" thickBot="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="96" customHeight="1" thickTop="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="L32" s="15"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="92" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="L33" s="15"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="76" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A05C36-96B0-B948-8B90-738213816B0F}">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="56.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22" style="11" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="11" customWidth="1"/>
+    <col min="15" max="25" width="10.7109375" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" ht="41" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="L6" s="15"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="74" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="15"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="105" customHeight="1" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="43" customHeight="1" thickTop="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="47" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="47" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="47" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="47" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="47" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="47" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="47" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="47" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="47" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="1">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="47" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="47" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="1">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="1">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="47" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="1">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="1">
+        <v>12</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="47" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="1">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="47" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="1">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="1">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="47" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="1">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="1">
+        <v>15</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="47" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="1">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="1">
+        <v>16</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="47" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="1">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="1">
+        <v>17</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="47" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="1">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="1">
+        <v>18</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="47" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="1">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="1">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="47" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="1">
+        <v>20</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="47" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="1">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="1">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="47" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="1">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="1">
+        <v>22</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="47" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="1">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="1">
+        <v>23</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="47" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="1">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="1">
+        <v>24</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="47" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="1">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="1">
+        <v>25</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="47" customHeight="1" thickBot="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="5">
+        <v>26</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="5">
+        <v>26</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" ht="22" customHeight="1" thickTop="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="63" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" ht="89" customHeight="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="61" customHeight="1" thickBot="1">
+      <c r="A43" s="19"/>
+      <c r="B43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" ht="96" customHeight="1" thickTop="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="L44" s="15"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" ht="92" customHeight="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="L45" s="15"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" ht="76" customHeight="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2BB4CE-13D4-FD45-9B9A-D97EA99DE851}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="56.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22" style="11" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="11" customWidth="1"/>
+    <col min="15" max="25" width="10.7109375" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" ht="41" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="L6" s="15"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="74" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="15"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="105" customHeight="1" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="43" customHeight="1" thickTop="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="47" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="47" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="47" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="47" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="47" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="47" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="47" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="47" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="47" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="47" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="47" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="47" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="47" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="47" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="47" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="47" customHeight="1" thickBot="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="22" customHeight="1" thickTop="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="63" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="89" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="61" customHeight="1" thickBot="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="96" customHeight="1" thickTop="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="L34" s="15"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="92" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="L35" s="15"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="76" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DC90A2-BBAD-8645-B18D-03800E2E17AF}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="56.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22" style="11" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="11" customWidth="1"/>
+    <col min="15" max="25" width="10.7109375" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" ht="41" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="L6" s="15"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="74" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="15"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="105" customHeight="1" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="43" customHeight="1" thickTop="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="47" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="47" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="47" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="47" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="47" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="47" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="47" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="47" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="47" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="47" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="47" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="47" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="22" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="63" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="89" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="61" customHeight="1" thickBot="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="96" customHeight="1" thickTop="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="L30" s="15"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="92" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="L31" s="15"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="76" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E4D4D-7465-7B49-83C8-B2C2215FB456}">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="56.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22" style="11" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="11" customWidth="1"/>
+    <col min="15" max="25" width="10.7109375" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" ht="41" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="L6" s="15"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="L10" s="15"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="74" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="15"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="105" customHeight="1" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="43" customHeight="1" thickTop="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="47" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="47" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="47" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="47" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="47" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="47" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="47" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="47" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="47" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="1">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="47" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="47" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="1">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="1">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="47" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="1">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="1">
+        <v>12</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="47" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="1">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="47" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="1">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="1">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="47" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="1">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="1">
+        <v>15</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="47" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="1">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="1">
+        <v>16</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="47" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="1">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="1">
+        <v>17</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="47" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="1">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="1">
+        <v>18</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="47" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="1">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="1">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="47" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="1">
+        <v>20</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="47" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="1">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="1">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="47" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="1">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="1">
+        <v>22</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="47" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="1">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="1">
+        <v>23</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="47" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="1">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="1">
+        <v>24</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="47" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="1">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="1">
+        <v>25</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="47" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="1">
+        <v>26</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="1">
+        <v>26</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="2"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" ht="47" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="1">
+        <v>27</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="1">
+        <v>27</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="2"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="47" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="1">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="1">
+        <v>28</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="2"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" ht="47" customHeight="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="1">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="1">
+        <v>29</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="2"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="47" customHeight="1" thickBot="1">
+      <c r="A43" s="19"/>
+      <c r="B43" s="5">
+        <v>30</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="5">
+        <v>30</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" ht="22" customHeight="1" thickTop="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" ht="63" customHeight="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" ht="89" customHeight="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" ht="61" customHeight="1" thickBot="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" ht="96" customHeight="1" thickTop="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="L48" s="15"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14" ht="92" customHeight="1">
+      <c r="A49" s="19"/>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="L49" s="15"/>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" ht="76" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>